--- a/lib/davinci_plan_net_test_kit/requirements/hl7.fhir.us.davinci-pdex-plan-net_1.1.0_reqs.xlsx
+++ b/lib/davinci_plan_net_test_kit/requirements/hl7.fhir.us.davinci-pdex-plan-net_1.1.0_reqs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/knaden/Documents/Inferno/source/davinci-plan-net-test-kit/lib/davinci_plan_net_test_kit/requirements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC964A42-33FA-8D42-A7C7-4291C962A805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C272952-8BCC-8644-9B44-8986AB37682A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{D251129A-65BB-5042-909C-749E11B8C0B0}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{D251129A-65BB-5042-909C-749E11B8C0B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="9" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -2653,7 +2653,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6AA7094-ECFF-0B4E-A5C9-6F41B8D76EEB}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
@@ -2740,8 +2740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0272D98A-080C-3945-A7E0-CB54FB3A65A9}">
   <dimension ref="A1:V348"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7738,7 +7738,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7964,6 +7964,19 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="b5a44311-ed64-4a72-909f-c9dc6973bde2" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Description xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b" xsi:nil="true"/>
+    <SortOrder xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EC335ED7BB179244BF94A0DFE64544DC" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d3a0f66abe5d2a0564332877ab55d3f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="eebd8b74-b9de-41b2-9247-c010c4973c2b" xmlns:ns3="b7009bbd-f938-489b-a530-f05273710fff" xmlns:ns4="b5a44311-ed64-4a72-909f-c9dc6973bde2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ec7ca2ee893ff8a0f61d4046c6461645" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="eebd8b74-b9de-41b2-9247-c010c4973c2b"/>
@@ -8217,19 +8230,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="b5a44311-ed64-4a72-909f-c9dc6973bde2" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Description xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b" xsi:nil="true"/>
-    <SortOrder xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA84097F-5807-4DCF-92C6-48C9EE26CFB8}">
   <ds:schemaRefs>
@@ -8239,6 +8239,24 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19B0E317-5E0E-4728-AB3F-40F2C2B957FB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="b7009bbd-f938-489b-a530-f05273710fff"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="eebd8b74-b9de-41b2-9247-c010c4973c2b"/>
+    <ds:schemaRef ds:uri="b5a44311-ed64-4a72-909f-c9dc6973bde2"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E19681A-8DD3-40CB-9262-8533E89B98A6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8256,22 +8274,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19B0E317-5E0E-4728-AB3F-40F2C2B957FB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="b7009bbd-f938-489b-a530-f05273710fff"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="eebd8b74-b9de-41b2-9247-c010c4973c2b"/>
-    <ds:schemaRef ds:uri="b5a44311-ed64-4a72-909f-c9dc6973bde2"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>